--- a/Analysis/Data_Breakdown.xlsx
+++ b/Analysis/Data_Breakdown.xlsx
@@ -8,41 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5b1dd252aa31104/Documents/UTSA/Architecture/Project/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{08322152-9FCF-4CD4-A2A8-5A1D7C0201DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B164DA3D-8FB9-4EE2-B20D-8BDE65E880B1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{08322152-9FCF-4CD4-A2A8-5A1D7C0201DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CCCC8F7-67C8-4824-AB24-55CF26F0418A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Analysis" sheetId="1" r:id="rId1"/>
     <sheet name="CPI Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId3"/>
+    <sheet name="All Graphs" sheetId="10" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">('CPI Analysis'!$B$2,'CPI Analysis'!$B$7,'CPI Analysis'!$B$12,'CPI Analysis'!$B$17,'CPI Analysis'!$B$22)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">('CPI Analysis'!$B$27,'CPI Analysis'!$B$32,'CPI Analysis'!$B$37,'CPI Analysis'!$B$42,'CPI Analysis'!$B$47)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">('CPI Analysis'!$B$6,'CPI Analysis'!$B$11,'CPI Analysis'!$B$16,'CPI Analysis'!$B$21,'CPI Analysis'!$B$26)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">('CPI Analysis'!$H$31,'CPI Analysis'!$H$36,'CPI Analysis'!$H$41,'CPI Analysis'!$H$46,'CPI Analysis'!$H$51)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('CPI Analysis'!$H$56,'CPI Analysis'!$H$61,'CPI Analysis'!$H$66,'CPI Analysis'!$H$71,'CPI Analysis'!$H$76)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">('CPI Analysis'!$H$6,'CPI Analysis'!$H$11,'CPI Analysis'!$H$16,'CPI Analysis'!$H$21,'CPI Analysis'!$H$26)</definedName>
-    <definedName name="_xlcn.WorksheetConnection_CombinedL1S151" hidden="1">[1]Combined!$L$1:$S$151</definedName>
-    <definedName name="_xlcn.WorksheetConnection_CostAnalysisP1S1511" hidden="1">'Cost Analysis'!$P$1:$S$151</definedName>
-    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisA1J1511" hidden="1">'CPI Analysis'!$A$1:$J$151</definedName>
-    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisI1L1511" hidden="1">'CPI Analysis'!$I$1:$L$151</definedName>
-    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisI1M261" hidden="1">'CPI Analysis'!$I$1:$L$26</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CombinedL1S1511" hidden="1">[1]Combined!$L$1:$S$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CostAnalysisO1S151" hidden="1">'Cost Analysis'!$O$1:$S$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CostAnalysisP1S151" hidden="1">'Cost Analysis'!$P$1:$S$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisA1J151" hidden="1">'CPI Analysis'!$A$1:$J$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisI1L151" hidden="1">'CPI Analysis'!$I$1:$L$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CPIAnalysisI1M26" hidden="1">'CPI Analysis'!$I$1:$L$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="279" r:id="rId5"/>
-        <pivotCache cacheId="280" r:id="rId6"/>
-        <pivotCache cacheId="281" r:id="rId7"/>
-        <pivotCache cacheId="290" r:id="rId8"/>
-        <pivotCache cacheId="292" r:id="rId9"/>
-        <pivotCache cacheId="294" r:id="rId10"/>
+        <pivotCache cacheId="21" r:id="rId5"/>
+        <pivotCache cacheId="22" r:id="rId6"/>
+        <pivotCache cacheId="23" r:id="rId7"/>
+        <pivotCache cacheId="24" r:id="rId8"/>
+        <pivotCache cacheId="35" r:id="rId9"/>
+        <pivotCache cacheId="36" r:id="rId10"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
@@ -63,6 +58,7 @@
           <x15:modelTable id="Range 2" name="Range 2" connection="WorksheetConnection_CPI Analysis!$A$1:$J$151"/>
           <x15:modelTable id="Range 3" name="Range 3" connection="WorksheetConnection_Cost Analysis!$P$1:$S$151"/>
           <x15:modelTable id="Range 4" name="Range 4" connection="WorksheetConnection_Combined!$L$1:$S$151"/>
+          <x15:modelTable id="Range 5" name="Range 5" connection="WorksheetConnection_Cost Analysis!$O$1:$S$151"/>
         </x15:modelTables>
       </x15:dataModel>
     </ext>
@@ -91,43 +87,52 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 4" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CombinedL1S151"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CombinedL1S1511"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{754BF601-6DCB-400E-913B-408DE0CD1CBD}" name="WorksheetConnection_Cost Analysis!$P$1:$S$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{F7F62739-6810-45F8-9266-96D283415060}" name="WorksheetConnection_Cost Analysis!$O$1:$S$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Range 3" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CostAnalysisP1S1511"/>
+        <x15:connection id="Range 5" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CostAnalysisO1S151"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="4" xr16:uid="{B48A0A9C-24B2-4AD1-B0E3-BFA60BBCC764}" name="WorksheetConnection_CPI Analysis!$A$1:$J$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{754BF601-6DCB-400E-913B-408DE0CD1CBD}" name="WorksheetConnection_Cost Analysis!$P$1:$S$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Range 2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisA1J1511"/>
+        <x15:connection id="Range 3" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CostAnalysisP1S151"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="5" xr16:uid="{AA00A86B-AF6F-477A-BF5E-82A0B8A820FB}" name="WorksheetConnection_CPI Analysis!$I$1:$L$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="5" xr16:uid="{B48A0A9C-24B2-4AD1-B0E3-BFA60BBCC764}" name="WorksheetConnection_CPI Analysis!$A$1:$J$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisI1L1511"/>
+        <x15:connection id="Range 2" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisA1J151"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="6" xr16:uid="{C2EE4964-DF96-48E6-A50F-10D7C755C5B3}" name="WorksheetConnection_CPI Analysis!$I$1:$M$26" type="102" refreshedVersion="6" minRefreshableVersion="5">
+  <connection id="6" xr16:uid="{AA00A86B-AF6F-477A-BF5E-82A0B8A820FB}" name="WorksheetConnection_CPI Analysis!$I$1:$L$151" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Range 1" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisI1L151"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="7" xr16:uid="{C2EE4964-DF96-48E6-A50F-10D7C755C5B3}" name="WorksheetConnection_CPI Analysis!$I$1:$M$26" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisI1M261"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CPIAnalysisI1M26"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -782,11 +787,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Cost</a:t>
+              <a:t>COST</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Comparison</a:t>
+              <a:t> COMPARISON</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -831,411 +836,6 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="27"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1361,7 +961,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="28"/>
+        <c:idx val="1"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1487,7 +1087,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="29"/>
+        <c:idx val="2"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1571,7 +1171,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="30"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1655,7 +1255,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="31"/>
+        <c:idx val="4"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1739,7 +1339,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="32"/>
+        <c:idx val="5"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -1833,7 +1433,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sum of Avg Unused%</c:v>
+            <c:v>Sum of Avg Cost per Block Size</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -2004,100 +1604,100 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="30"/>
               <c:pt idx="0">
-                <c:v>0</c:v>
+                <c:v>0.246</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>0</c:v>
+                <c:v>0.192</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>0</c:v>
+                <c:v>0.16800000000000001</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>0</c:v>
+                <c:v>0.15</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>0</c:v>
+                <c:v>0.15</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>71.062469482000012</c:v>
+                <c:v>53.759999999999991</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>67.932434079999993</c:v>
+                <c:v>44.8</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>63.407592772000001</c:v>
+                <c:v>40.32</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>56.671142578000001</c:v>
+                <c:v>38.08</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>46.992187502</c:v>
+                <c:v>36.96</c:v>
               </c:pt>
               <c:pt idx="10">
-                <c:v>85.227661132000009</c:v>
+                <c:v>105.28</c:v>
               </c:pt>
               <c:pt idx="11">
-                <c:v>83.558654785999991</c:v>
+                <c:v>88.47999999999999</c:v>
               </c:pt>
               <c:pt idx="12">
-                <c:v>81.107177735999983</c:v>
+                <c:v>80.08</c:v>
               </c:pt>
               <c:pt idx="13">
-                <c:v>77.374877929999997</c:v>
+                <c:v>75.88</c:v>
               </c:pt>
               <c:pt idx="14">
-                <c:v>71.719970705999998</c:v>
+                <c:v>73.78</c:v>
               </c:pt>
               <c:pt idx="15">
-                <c:v>92.550506589999998</c:v>
+                <c:v>206.08</c:v>
               </c:pt>
               <c:pt idx="16">
-                <c:v>91.695938110000014</c:v>
+                <c:v>174.72000000000003</c:v>
               </c:pt>
               <c:pt idx="17">
-                <c:v>90.433502197999999</c:v>
+                <c:v>159.04</c:v>
               </c:pt>
               <c:pt idx="18">
-                <c:v>88.496093748000007</c:v>
+                <c:v>151.19999999999999</c:v>
               </c:pt>
               <c:pt idx="19">
-                <c:v>85.522460937999995</c:v>
+                <c:v>147.28</c:v>
               </c:pt>
               <c:pt idx="20">
-                <c:v>96.269779204000002</c:v>
+                <c:v>403.2</c:v>
               </c:pt>
               <c:pt idx="21">
-                <c:v>95.840072632000002</c:v>
+                <c:v>344.96000000000004</c:v>
               </c:pt>
               <c:pt idx="22">
-                <c:v>95.203857421999999</c:v>
+                <c:v>315.83999999999997</c:v>
               </c:pt>
               <c:pt idx="23">
-                <c:v>94.225921634000002</c:v>
+                <c:v>301.28000000000003</c:v>
               </c:pt>
               <c:pt idx="24">
-                <c:v>92.717895507999998</c:v>
+                <c:v>294</c:v>
               </c:pt>
               <c:pt idx="25">
-                <c:v>98.127164841999985</c:v>
+                <c:v>788.48</c:v>
               </c:pt>
               <c:pt idx="26">
-                <c:v>97.910881045999986</c:v>
+                <c:v>680.96</c:v>
               </c:pt>
               <c:pt idx="27">
-                <c:v>97.590446471999996</c:v>
+                <c:v>627.20000000000005</c:v>
               </c:pt>
               <c:pt idx="28">
-                <c:v>97.09724426199999</c:v>
+                <c:v>600.32000000000005</c:v>
               </c:pt>
               <c:pt idx="29">
-                <c:v>96.334533692000008</c:v>
+                <c:v>586.88</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-597E-492B-84BE-0713F295ACD7}"/>
+              <c16:uniqueId val="{00000000-60A7-46A5-88BE-3B9D1C16F535}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,7 +1969,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-597E-492B-84BE-0713F295ACD7}"/>
+              <c16:uniqueId val="{00000001-60A7-46A5-88BE-3B9D1C16F535}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2383,11 +1983,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1586308752"/>
-        <c:axId val="1529600336"/>
+        <c:axId val="167513599"/>
+        <c:axId val="1954289343"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1586308752"/>
+        <c:axId val="167513599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,8 +2013,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Cache size (kb) broken by block size (bytes) </a:t>
+                  <a:t>cACHE SIZE (KB)</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> BROKEN BY BLOCK SIZE(BYTES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2482,7 +2087,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1529600336"/>
+        <c:crossAx val="1954289343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +2100,7 @@
         </c:extLst>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1529600336"/>
+        <c:axId val="1954289343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,8 +2140,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Cost</a:t>
+                  <a:t>cOST</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2568,7 +2178,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2598,9 +2208,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1586308752"/>
+        <c:crossAx val="167513599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
+            <c15:numFmt c:formatCode="General" c:sourceLinked="1"/>
+          </c:ext>
+        </c:extLst>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2687,10 +2302,15 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Data_Breakdown.xlsx]PivotChartTable7</c15:name>
+        <c15:name>[Data_Breakdown.xlsx]PivotChartTable2</c15:name>
         <c15:fmtId val="2"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -3286,7 +2906,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3371,7 +2990,6 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3935,7 +3553,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4237,6 +3854,11 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -11489,7 +11111,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -12054,6 +11678,11 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -19731,6 +19360,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39613644323632968"/>
+              <c:y val="0.85805468262655504"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19976,11 +19613,6 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -21609,6 +21241,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35436450631680971"/>
+              <c:y val="0.8233236634894322"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21865,11 +21505,6 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
@@ -21934,11 +21569,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Cost</a:t>
+              <a:t>COST</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Comparison</a:t>
+              <a:t> COMPARISON</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -21983,411 +21618,6 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="27"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -22513,7 +21743,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="28"/>
+        <c:idx val="1"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -22639,7 +21869,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="29"/>
+        <c:idx val="2"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -22723,7 +21953,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="30"/>
+        <c:idx val="3"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -22807,7 +22037,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="31"/>
+        <c:idx val="4"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -22891,343 +22121,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="32"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="33"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="34"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="35"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="103000"/>
-                  <a:lumMod val="102000"/>
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="50000">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="110000"/>
-                  <a:lumMod val="100000"/>
-                  <a:shade val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="99000"/>
-                  <a:satMod val="120000"/>
-                  <a:shade val="78000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="36"/>
+        <c:idx val="5"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -23321,7 +22215,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sum of Avg Unused%</c:v>
+            <c:v>Sum of Avg Cost per Block Size</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -23492,100 +22386,100 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="30"/>
               <c:pt idx="0">
-                <c:v>0</c:v>
+                <c:v>0.246</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>0</c:v>
+                <c:v>0.192</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>0</c:v>
+                <c:v>0.16800000000000001</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>0</c:v>
+                <c:v>0.15</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>0</c:v>
+                <c:v>0.15</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>71.062469482000012</c:v>
+                <c:v>53.759999999999991</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>67.932434079999993</c:v>
+                <c:v>44.8</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>63.407592772000001</c:v>
+                <c:v>40.32</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>56.671142578000001</c:v>
+                <c:v>38.08</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>46.992187502</c:v>
+                <c:v>36.96</c:v>
               </c:pt>
               <c:pt idx="10">
-                <c:v>85.227661132000009</c:v>
+                <c:v>105.28</c:v>
               </c:pt>
               <c:pt idx="11">
-                <c:v>83.558654785999991</c:v>
+                <c:v>88.47999999999999</c:v>
               </c:pt>
               <c:pt idx="12">
-                <c:v>81.107177735999983</c:v>
+                <c:v>80.08</c:v>
               </c:pt>
               <c:pt idx="13">
-                <c:v>77.374877929999997</c:v>
+                <c:v>75.88</c:v>
               </c:pt>
               <c:pt idx="14">
-                <c:v>71.719970705999998</c:v>
+                <c:v>73.78</c:v>
               </c:pt>
               <c:pt idx="15">
-                <c:v>92.550506589999998</c:v>
+                <c:v>206.08</c:v>
               </c:pt>
               <c:pt idx="16">
-                <c:v>91.695938110000014</c:v>
+                <c:v>174.72000000000003</c:v>
               </c:pt>
               <c:pt idx="17">
-                <c:v>90.433502197999999</c:v>
+                <c:v>159.04</c:v>
               </c:pt>
               <c:pt idx="18">
-                <c:v>88.496093748000007</c:v>
+                <c:v>151.19999999999999</c:v>
               </c:pt>
               <c:pt idx="19">
-                <c:v>85.522460937999995</c:v>
+                <c:v>147.28</c:v>
               </c:pt>
               <c:pt idx="20">
-                <c:v>96.269779204000002</c:v>
+                <c:v>403.2</c:v>
               </c:pt>
               <c:pt idx="21">
-                <c:v>95.840072632000002</c:v>
+                <c:v>344.96000000000004</c:v>
               </c:pt>
               <c:pt idx="22">
-                <c:v>95.203857421999999</c:v>
+                <c:v>315.83999999999997</c:v>
               </c:pt>
               <c:pt idx="23">
-                <c:v>94.225921634000002</c:v>
+                <c:v>301.28000000000003</c:v>
               </c:pt>
               <c:pt idx="24">
-                <c:v>92.717895507999998</c:v>
+                <c:v>294</c:v>
               </c:pt>
               <c:pt idx="25">
-                <c:v>98.127164841999985</c:v>
+                <c:v>788.48</c:v>
               </c:pt>
               <c:pt idx="26">
-                <c:v>97.910881045999986</c:v>
+                <c:v>680.96</c:v>
               </c:pt>
               <c:pt idx="27">
-                <c:v>97.590446471999996</c:v>
+                <c:v>627.20000000000005</c:v>
               </c:pt>
               <c:pt idx="28">
-                <c:v>97.09724426199999</c:v>
+                <c:v>600.32000000000005</c:v>
               </c:pt>
               <c:pt idx="29">
-                <c:v>96.334533692000008</c:v>
+                <c:v>586.88</c:v>
               </c:pt>
             </c:numLit>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C28-45AD-960D-E6EF6A91C37A}"/>
+              <c16:uniqueId val="{00000000-3761-4248-A8C1-564DEB153AD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23857,7 +22751,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C28-45AD-960D-E6EF6A91C37A}"/>
+              <c16:uniqueId val="{00000001-3761-4248-A8C1-564DEB153AD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23871,11 +22765,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1586308752"/>
-        <c:axId val="1529600336"/>
+        <c:axId val="167513599"/>
+        <c:axId val="1954289343"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1586308752"/>
+        <c:axId val="167513599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23901,11 +22795,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Cache size (kb) broken by block size (bytes) </a:t>
+                  <a:t>cACHE SIZE (KB)</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> BROKEN BY BLOCK SIZE(BYTES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28345201434591782"/>
+              <c:y val="0.87932019547280349"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -23970,7 +22877,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1529600336"/>
+        <c:crossAx val="1954289343"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23983,7 +22890,7 @@
         </c:extLst>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1529600336"/>
+        <c:axId val="1954289343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24023,8 +22930,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Cost</a:t>
+                  <a:t>cOST</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -24056,7 +22968,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -24086,9 +22998,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1586308752"/>
+        <c:crossAx val="167513599"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
+            <c15:numFmt c:formatCode="General" c:sourceLinked="1"/>
+          </c:ext>
+        </c:extLst>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -24175,11 +23092,16 @@
       <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[Data_Breakdown.xlsx]PivotChartTable11</c15:name>
-        <c15:fmtId val="4"/>
+        <c15:name>[Data_Breakdown.xlsx]PivotChartTable4</c15:name>
+        <c15:fmtId val="2"/>
       </c15:pivotSource>
       <c15:pivotOptions>
         <c15:dropZoneFilter val="1"/>
@@ -27434,21 +26356,21 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CCA1DD-6942-4B46-8B84-840CBFBBF5FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC8926D-3CB4-48B0-8CAC-D5E99C95C750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27633,22 +26555,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
+      <xdr:colOff>366713</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>424815</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD827E2-5EBE-4B00-A0F8-3CBB2BA17B74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31757F4-9F08-40F1-836F-83C1044B2448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27685,472 +26607,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.864980324077" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{59239298-80C3-4C71-A340-65DB55BD3775}">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="[Range 3].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="21" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
-        <n v="2"/>
-        <n v="512"/>
-        <n v="1024"/>
-        <n v="2048"/>
-        <n v="4096"/>
-        <n v="8192"/>
-      </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 3].[Cache Size (KB)].&amp;[2]"/>
-            <x15:cachedUniqueName index="1" name="[Range 3].[Cache Size (KB)].&amp;[512]"/>
-            <x15:cachedUniqueName index="2" name="[Range 3].[Cache Size (KB)].&amp;[1024]"/>
-            <x15:cachedUniqueName index="3" name="[Range 3].[Cache Size (KB)].&amp;[2048]"/>
-            <x15:cachedUniqueName index="4" name="[Range 3].[Cache Size (KB)].&amp;[4096]"/>
-            <x15:cachedUniqueName index="5" name="[Range 3].[Cache Size (KB)].&amp;[8192]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
-    </cacheField>
-    <cacheField name="[Range 3].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="22" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="64" count="5">
-        <n v="4"/>
-        <n v="8"/>
-        <n v="16"/>
-        <n v="32"/>
-        <n v="64"/>
-      </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 3].[Block Size].&amp;[4]"/>
-            <x15:cachedUniqueName index="1" name="[Range 3].[Block Size].&amp;[8]"/>
-            <x15:cachedUniqueName index="2" name="[Range 3].[Block Size].&amp;[16]"/>
-            <x15:cachedUniqueName index="3" name="[Range 3].[Block Size].&amp;[32]"/>
-            <x15:cachedUniqueName index="4" name="[Range 3].[Block Size].&amp;[64]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
-    </cacheField>
-    <cacheField name="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" numFmtId="0" hierarchy="46" level="32767"/>
-    <cacheField name="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" numFmtId="0" hierarchy="47" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="50">
-    <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range].[Cache Size (KB)].[All]" allUniqueName="[Range].[Cache Size (KB)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range].[Block Size].[All]" allUniqueName="[Range].[Block Size].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Hit Rate].[All]" allUniqueName="[Range 1].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Miss Rate].[All]" allUniqueName="[Range 1].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 1].[Cache Size (KB)].[All]" allUniqueName="[Range 1].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 1].[Block Size].[All]" allUniqueName="[Range 1].[Block Size].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 2].[Cache Size (KB)].[All]" allUniqueName="[Range 2].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 2].[Block Size].[All]" allUniqueName="[Range 2].[Block Size].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Associativity]" caption="Associativity" attribute="1" defaultMemberUniqueName="[Range 2].[Associativity].[All]" allUniqueName="[Range 2].[Associativity].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Replacement]" caption="Replacement" attribute="1" defaultMemberUniqueName="[Range 2].[Replacement].[All]" allUniqueName="[Range 2].[Replacement].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Hit Rate%]" caption="Hit Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Hit Rate%].[All]" allUniqueName="[Range 2].[Hit Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Miss Rate%]" caption="Miss Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Miss Rate%].[All]" allUniqueName="[Range 2].[Miss Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[CPI]" caption="CPI" attribute="1" defaultMemberUniqueName="[Range 2].[CPI].[All]" allUniqueName="[Range 2].[CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 2].[Avg CPI].[All]" allUniqueName="[Range 2].[Avg CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Hit Rate].[All]" allUniqueName="[Range 2].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Miss Rate].[All]" allUniqueName="[Range 2].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Unused%].[All]" allUniqueName="[Range 3].[Avg Unused%].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Wasted Cost].[All]" allUniqueName="[Range 3].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Hit Rate].[All]" allUniqueName="[Range 4].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Miss Rate].[All]" allUniqueName="[Range 4].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 4].[Avg CPI].[All]" allUniqueName="[Range 4].[Avg CPI].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Cost per Block Size].[All]" allUniqueName="[Range 4].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Unused%].[All]" allUniqueName="[Range 4].[Avg Unused%].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="4"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate]" caption="Sum of Avg Miss Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate]" caption="Sum of Avg Hit Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI]" caption="Sum of Avg CPI" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="2"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB)]" caption="Sum of Cache Size (KB)" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="3"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB) 2]" caption="Sum of Cache Size (KB) 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="7"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="19"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 3]" caption="Sum of Avg CPI 3" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size]" caption="Sum of Avg Cost per Block Size" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="26"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
-    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
-    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
-    <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
-    <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
-  </dimensions>
-  <measureGroups count="5">
-    <measureGroup name="Range" caption="Range"/>
-    <measureGroup name="Range 1" caption="Range 1"/>
-    <measureGroup name="Range 2" caption="Range 2"/>
-    <measureGroup name="Range 3" caption="Range 3"/>
-    <measureGroup name="Range 4" caption="Range 4"/>
-  </measureGroups>
-  <maps count="5">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="3" dimension="4"/>
-    <map measureGroup="4" dimension="5"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="628938200" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
-      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.86021608796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DD465995-F6EC-4177-A4AA-191EADC381D5}">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="[Range 2].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="9" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
-        <n v="2"/>
-        <n v="512"/>
-        <n v="1024"/>
-        <n v="2048"/>
-        <n v="4096"/>
-        <n v="8192"/>
-      </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 2].[Cache Size (KB)].&amp;[2]"/>
-            <x15:cachedUniqueName index="1" name="[Range 2].[Cache Size (KB)].&amp;[512]"/>
-            <x15:cachedUniqueName index="2" name="[Range 2].[Cache Size (KB)].&amp;[1024]"/>
-            <x15:cachedUniqueName index="3" name="[Range 2].[Cache Size (KB)].&amp;[2048]"/>
-            <x15:cachedUniqueName index="4" name="[Range 2].[Cache Size (KB)].&amp;[4096]"/>
-            <x15:cachedUniqueName index="5" name="[Range 2].[Cache Size (KB)].&amp;[8192]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
-    </cacheField>
-    <cacheField name="[Range 2].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="64" count="5">
-        <n v="4"/>
-        <n v="8"/>
-        <n v="16"/>
-        <n v="32"/>
-        <n v="64"/>
-      </sharedItems>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
-          <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 2].[Block Size].&amp;[4]"/>
-            <x15:cachedUniqueName index="1" name="[Range 2].[Block Size].&amp;[8]"/>
-            <x15:cachedUniqueName index="2" name="[Range 2].[Block Size].&amp;[16]"/>
-            <x15:cachedUniqueName index="3" name="[Range 2].[Block Size].&amp;[32]"/>
-            <x15:cachedUniqueName index="4" name="[Range 2].[Block Size].&amp;[64]"/>
-          </x15:cachedUniqueNames>
-        </ext>
-      </extLst>
-    </cacheField>
-    <cacheField name="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" numFmtId="0" hierarchy="45" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="50">
-    <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range].[Cache Size (KB)].[All]" allUniqueName="[Range].[Cache Size (KB)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range].[Block Size].[All]" allUniqueName="[Range].[Block Size].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Hit Rate].[All]" allUniqueName="[Range 1].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Miss Rate].[All]" allUniqueName="[Range 1].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 1].[Cache Size (KB)].[All]" allUniqueName="[Range 1].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 1].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 1].[Block Size].[All]" allUniqueName="[Range 1].[Block Size].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 2].[Cache Size (KB)].[All]" allUniqueName="[Range 2].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Range 2].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 2].[Block Size].[All]" allUniqueName="[Range 2].[Block Size].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Range 2].[Associativity]" caption="Associativity" attribute="1" defaultMemberUniqueName="[Range 2].[Associativity].[All]" allUniqueName="[Range 2].[Associativity].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Replacement]" caption="Replacement" attribute="1" defaultMemberUniqueName="[Range 2].[Replacement].[All]" allUniqueName="[Range 2].[Replacement].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Hit Rate%]" caption="Hit Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Hit Rate%].[All]" allUniqueName="[Range 2].[Hit Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Miss Rate%]" caption="Miss Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Miss Rate%].[All]" allUniqueName="[Range 2].[Miss Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[CPI]" caption="CPI" attribute="1" defaultMemberUniqueName="[Range 2].[CPI].[All]" allUniqueName="[Range 2].[CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 2].[Avg CPI].[All]" allUniqueName="[Range 2].[Avg CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Hit Rate].[All]" allUniqueName="[Range 2].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 2].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Miss Rate].[All]" allUniqueName="[Range 2].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Unused%].[All]" allUniqueName="[Range 3].[Avg Unused%].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Wasted Cost].[All]" allUniqueName="[Range 3].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Hit Rate].[All]" allUniqueName="[Range 4].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Miss Rate].[All]" allUniqueName="[Range 4].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 4].[Avg CPI].[All]" allUniqueName="[Range 4].[Avg CPI].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Cost per Block Size].[All]" allUniqueName="[Range 4].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Unused%].[All]" allUniqueName="[Range 4].[Avg Unused%].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="4"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate]" caption="Sum of Avg Miss Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="1"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate]" caption="Sum of Avg Hit Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI]" caption="Sum of Avg CPI" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="2"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB)]" caption="Sum of Cache Size (KB)" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="3"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB) 2]" caption="Sum of Cache Size (KB) 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="7"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="19"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 3]" caption="Sum of Avg CPI 3" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size]" caption="Sum of Avg Cost per Block Size" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="26"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
-    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
-    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
-    <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
-    <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
-  </dimensions>
-  <measureGroups count="5">
-    <measureGroup name="Range" caption="Range"/>
-    <measureGroup name="Range 1" caption="Range 1"/>
-    <measureGroup name="Range 2" caption="Range 2"/>
-    <measureGroup name="Range 3" caption="Range 3"/>
-    <measureGroup name="Range 4" caption="Range 4"/>
-  </measureGroups>
-  <maps count="5">
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="3" dimension="4"/>
-    <map measureGroup="4" dimension="5"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1975147919" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
-      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.779114236109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{E86292FC-2B5D-4A97-B5FA-9550E54D3BD2}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -28180,8 +26636,8 @@
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" numFmtId="0" hierarchy="41" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" numFmtId="0" hierarchy="46" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" numFmtId="0" hierarchy="47" level="32767"/>
     <cacheField name="[Range 1].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="7" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
         <n v="2"/>
@@ -28205,7 +26661,7 @@
       </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="50">
+  <cacheHierarchies count="58">
     <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -28247,11 +26703,17 @@
     <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
       <extLst>
@@ -28350,29 +26812,46 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="6">
+  <dimensions count="7">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
     <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
     <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
     <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
   </dimensions>
-  <measureGroups count="5">
+  <measureGroups count="6">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
     <measureGroup name="Range 2" caption="Range 2"/>
     <measureGroup name="Range 3" caption="Range 3"/>
     <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
   </measureGroups>
-  <maps count="5">
+  <maps count="6">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
     <map measureGroup="2" dimension="3"/>
     <map measureGroup="3" dimension="4"/>
     <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -28385,8 +26864,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.86021608796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7B24B330-A5CE-47B0-81FC-1190718D3D45}">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.86021608796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DD465995-F6EC-4177-A4AA-191EADC381D5}">
   <cacheSource type="external" connectionId="1">
     <extLst>
       <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
@@ -28437,9 +26916,9 @@
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" numFmtId="0" hierarchy="45" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" numFmtId="0" hierarchy="51" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="50">
+  <cacheHierarchies count="58">
     <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -28481,11 +26960,17 @@
     <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
       <extLst>
@@ -28581,29 +27066,300 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="6">
+  <dimensions count="7">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
     <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
     <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
     <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
   </dimensions>
-  <measureGroups count="5">
+  <measureGroups count="6">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
     <measureGroup name="Range 2" caption="Range 2"/>
     <measureGroup name="Range 3" caption="Range 3"/>
     <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
   </measureGroups>
-  <maps count="5">
+  <maps count="6">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
     <map measureGroup="2" dimension="3"/>
     <map measureGroup="3" dimension="4"/>
     <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1975147919" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
+      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.86021608796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7B24B330-A5CE-47B0-81FC-1190718D3D45}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="[Range 2].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
+        <n v="2"/>
+        <n v="512"/>
+        <n v="1024"/>
+        <n v="2048"/>
+        <n v="4096"/>
+        <n v="8192"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 2].[Cache Size (KB)].&amp;[2]"/>
+            <x15:cachedUniqueName index="1" name="[Range 2].[Cache Size (KB)].&amp;[512]"/>
+            <x15:cachedUniqueName index="2" name="[Range 2].[Cache Size (KB)].&amp;[1024]"/>
+            <x15:cachedUniqueName index="3" name="[Range 2].[Cache Size (KB)].&amp;[2048]"/>
+            <x15:cachedUniqueName index="4" name="[Range 2].[Cache Size (KB)].&amp;[4096]"/>
+            <x15:cachedUniqueName index="5" name="[Range 2].[Cache Size (KB)].&amp;[8192]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Range 2].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="64" count="5">
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+        <n v="32"/>
+        <n v="64"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 2].[Block Size].&amp;[4]"/>
+            <x15:cachedUniqueName index="1" name="[Range 2].[Block Size].&amp;[8]"/>
+            <x15:cachedUniqueName index="2" name="[Range 2].[Block Size].&amp;[16]"/>
+            <x15:cachedUniqueName index="3" name="[Range 2].[Block Size].&amp;[32]"/>
+            <x15:cachedUniqueName index="4" name="[Range 2].[Block Size].&amp;[64]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" numFmtId="0" hierarchy="51" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="58">
+    <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range].[Cache Size (KB)].[All]" allUniqueName="[Range].[Cache Size (KB)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range].[Block Size].[All]" allUniqueName="[Range].[Block Size].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Hit Rate].[All]" allUniqueName="[Range 1].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Miss Rate].[All]" allUniqueName="[Range 1].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 1].[Cache Size (KB)].[All]" allUniqueName="[Range 1].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 1].[Block Size].[All]" allUniqueName="[Range 1].[Block Size].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 2].[Cache Size (KB)].[All]" allUniqueName="[Range 2].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 2].[Block Size].[All]" allUniqueName="[Range 2].[Block Size].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 2].[Associativity]" caption="Associativity" attribute="1" defaultMemberUniqueName="[Range 2].[Associativity].[All]" allUniqueName="[Range 2].[Associativity].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Replacement]" caption="Replacement" attribute="1" defaultMemberUniqueName="[Range 2].[Replacement].[All]" allUniqueName="[Range 2].[Replacement].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Hit Rate%]" caption="Hit Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Hit Rate%].[All]" allUniqueName="[Range 2].[Hit Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Miss Rate%]" caption="Miss Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Miss Rate%].[All]" allUniqueName="[Range 2].[Miss Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[CPI]" caption="CPI" attribute="1" defaultMemberUniqueName="[Range 2].[CPI].[All]" allUniqueName="[Range 2].[CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 2].[Avg CPI].[All]" allUniqueName="[Range 2].[Avg CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Hit Rate].[All]" allUniqueName="[Range 2].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Miss Rate].[All]" allUniqueName="[Range 2].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Unused%].[All]" allUniqueName="[Range 3].[Avg Unused%].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Wasted Cost].[All]" allUniqueName="[Range 3].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Hit Rate].[All]" allUniqueName="[Range 4].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Miss Rate].[All]" allUniqueName="[Range 4].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 4].[Avg CPI].[All]" allUniqueName="[Range 4].[Avg CPI].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Cost per Block Size].[All]" allUniqueName="[Range 4].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Unused%].[All]" allUniqueName="[Range 4].[Avg Unused%].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate]" caption="Sum of Avg Miss Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate]" caption="Sum of Avg Hit Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI]" caption="Sum of Avg CPI" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB)]" caption="Sum of Cache Size (KB)" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB) 2]" caption="Sum of Cache Size (KB) 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="19"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 3]" caption="Sum of Avg CPI 3" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size]" caption="Sum of Avg Cost per Block Size" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="26"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="7">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
+    <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
+    <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
+  </dimensions>
+  <measureGroups count="6">
+    <measureGroup name="Range" caption="Range"/>
+    <measureGroup name="Range 1" caption="Range 1"/>
+    <measureGroup name="Range 2" caption="Range 2"/>
+    <measureGroup name="Range 3" caption="Range 3"/>
+    <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
+  </measureGroups>
+  <maps count="6">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -28616,7 +27372,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.779114236109" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B27B7A68-5D5F-49A7-BA4A-97F33DE0951F}">
   <cacheSource type="external" connectionId="1">
     <extLst>
@@ -28646,8 +27402,8 @@
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" numFmtId="0" hierarchy="40" level="32767"/>
-    <cacheField name="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" numFmtId="0" hierarchy="41" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" numFmtId="0" hierarchy="46" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" numFmtId="0" hierarchy="47" level="32767"/>
     <cacheField name="[Range 1].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="7" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
         <n v="2"/>
@@ -28671,7 +27427,7 @@
       </extLst>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="50">
+  <cacheHierarchies count="58">
     <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -28713,11 +27469,17 @@
     <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
       <extLst>
@@ -28816,29 +27578,46 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="6">
+  <dimensions count="7">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
     <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
     <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
     <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
   </dimensions>
-  <measureGroups count="5">
+  <measureGroups count="6">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
     <measureGroup name="Range 2" caption="Range 2"/>
     <measureGroup name="Range 3" caption="Range 3"/>
     <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
   </measureGroups>
-  <maps count="5">
+  <maps count="6">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
     <map measureGroup="2" dimension="3"/>
     <map measureGroup="3" dimension="4"/>
     <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -28851,8 +27630,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.864980324077" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{800293C5-E945-4057-83FB-867FEBD9E574}">
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.883093287041" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00BEBF6E-C4A6-435D-8F87-0E3E08353870}">
   <cacheSource type="external" connectionId="1">
     <extLst>
       <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
@@ -28861,7 +27640,9 @@
     </extLst>
   </cacheSource>
   <cacheFields count="4">
-    <cacheField name="[Range 3].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="21" level="1">
+    <cacheField name="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" numFmtId="0" hierarchy="56" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" numFmtId="0" hierarchy="57" level="32767"/>
+    <cacheField name="[Range 5].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="34" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
         <n v="2"/>
         <n v="512"/>
@@ -28873,17 +27654,17 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 3].[Cache Size (KB)].&amp;[2]"/>
-            <x15:cachedUniqueName index="1" name="[Range 3].[Cache Size (KB)].&amp;[512]"/>
-            <x15:cachedUniqueName index="2" name="[Range 3].[Cache Size (KB)].&amp;[1024]"/>
-            <x15:cachedUniqueName index="3" name="[Range 3].[Cache Size (KB)].&amp;[2048]"/>
-            <x15:cachedUniqueName index="4" name="[Range 3].[Cache Size (KB)].&amp;[4096]"/>
-            <x15:cachedUniqueName index="5" name="[Range 3].[Cache Size (KB)].&amp;[8192]"/>
+            <x15:cachedUniqueName index="0" name="[Range 5].[Cache Size (KB)].&amp;[2]"/>
+            <x15:cachedUniqueName index="1" name="[Range 5].[Cache Size (KB)].&amp;[512]"/>
+            <x15:cachedUniqueName index="2" name="[Range 5].[Cache Size (KB)].&amp;[1024]"/>
+            <x15:cachedUniqueName index="3" name="[Range 5].[Cache Size (KB)].&amp;[2048]"/>
+            <x15:cachedUniqueName index="4" name="[Range 5].[Cache Size (KB)].&amp;[4096]"/>
+            <x15:cachedUniqueName index="5" name="[Range 5].[Cache Size (KB)].&amp;[8192]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Range 3].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="22" level="1">
+    <cacheField name="[Range 5].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="35" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="64" count="5">
         <n v="4"/>
         <n v="8"/>
@@ -28894,19 +27675,17 @@
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
           <x15:cachedUniqueNames>
-            <x15:cachedUniqueName index="0" name="[Range 3].[Block Size].&amp;[4]"/>
-            <x15:cachedUniqueName index="1" name="[Range 3].[Block Size].&amp;[8]"/>
-            <x15:cachedUniqueName index="2" name="[Range 3].[Block Size].&amp;[16]"/>
-            <x15:cachedUniqueName index="3" name="[Range 3].[Block Size].&amp;[32]"/>
-            <x15:cachedUniqueName index="4" name="[Range 3].[Block Size].&amp;[64]"/>
+            <x15:cachedUniqueName index="0" name="[Range 5].[Block Size].&amp;[4]"/>
+            <x15:cachedUniqueName index="1" name="[Range 5].[Block Size].&amp;[8]"/>
+            <x15:cachedUniqueName index="2" name="[Range 5].[Block Size].&amp;[16]"/>
+            <x15:cachedUniqueName index="3" name="[Range 5].[Block Size].&amp;[32]"/>
+            <x15:cachedUniqueName index="4" name="[Range 5].[Block Size].&amp;[64]"/>
           </x15:cachedUniqueNames>
         </ext>
       </extLst>
     </cacheField>
-    <cacheField name="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" numFmtId="0" hierarchy="46" level="32767"/>
-    <cacheField name="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" numFmtId="0" hierarchy="47" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="50">
+  <cacheHierarchies count="58">
     <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -28928,18 +27707,8 @@
     <cacheHierarchy uniqueName="[Range 2].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Miss Rate].[All]" allUniqueName="[Range 2].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 3].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Unused%].[All]" allUniqueName="[Range 3].[Avg Unused%].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 3].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Wasted Cost].[All]" allUniqueName="[Range 3].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Hit Rate].[All]" allUniqueName="[Range 4].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Miss Rate].[All]" allUniqueName="[Range 4].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 4].[Avg CPI].[All]" allUniqueName="[Range 4].[Avg CPI].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
@@ -28948,11 +27717,27 @@
     <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
       <extLst>
@@ -29017,20 +27802,14 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="19"/>
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="20"/>
@@ -29051,33 +27830,314 @@
         </ext>
       </extLst>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="6">
+  <dimensions count="7">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Range" uniqueName="[Range]" caption="Range"/>
     <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
     <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
     <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
     <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
   </dimensions>
-  <measureGroups count="5">
+  <measureGroups count="6">
     <measureGroup name="Range" caption="Range"/>
     <measureGroup name="Range 1" caption="Range 1"/>
     <measureGroup name="Range 2" caption="Range 2"/>
     <measureGroup name="Range 3" caption="Range 3"/>
     <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
   </measureGroups>
-  <maps count="5">
+  <maps count="6">
     <map measureGroup="0" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
     <map measureGroup="2" dimension="3"/>
     <map measureGroup="3" dimension="4"/>
     <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1111665505" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+      <x14:pivotCacheDefinition pivotCacheId="900453948" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
+      <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Katarina Dominguez" refreshedDate="44036.883093287041" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{07F243B5-130D-4195-A0BF-B86DFE4716D6}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" numFmtId="0" hierarchy="56" level="32767"/>
+    <cacheField name="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" numFmtId="0" hierarchy="57" level="32767"/>
+    <cacheField name="[Range 5].[Cache Size (KB)].[Cache Size (KB)]" caption="Cache Size (KB)" numFmtId="0" hierarchy="34" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8192" count="6">
+        <n v="2"/>
+        <n v="512"/>
+        <n v="1024"/>
+        <n v="2048"/>
+        <n v="4096"/>
+        <n v="8192"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 5].[Cache Size (KB)].&amp;[2]"/>
+            <x15:cachedUniqueName index="1" name="[Range 5].[Cache Size (KB)].&amp;[512]"/>
+            <x15:cachedUniqueName index="2" name="[Range 5].[Cache Size (KB)].&amp;[1024]"/>
+            <x15:cachedUniqueName index="3" name="[Range 5].[Cache Size (KB)].&amp;[2048]"/>
+            <x15:cachedUniqueName index="4" name="[Range 5].[Cache Size (KB)].&amp;[4096]"/>
+            <x15:cachedUniqueName index="5" name="[Range 5].[Cache Size (KB)].&amp;[8192]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Range 5].[Block Size].[Block Size]" caption="Block Size" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="64" count="5">
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+        <n v="32"/>
+        <n v="64"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Range 5].[Block Size].&amp;[4]"/>
+            <x15:cachedUniqueName index="1" name="[Range 5].[Block Size].&amp;[8]"/>
+            <x15:cachedUniqueName index="2" name="[Range 5].[Block Size].&amp;[16]"/>
+            <x15:cachedUniqueName index="3" name="[Range 5].[Block Size].&amp;[32]"/>
+            <x15:cachedUniqueName index="4" name="[Range 5].[Block Size].&amp;[64]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="58">
+    <cacheHierarchy uniqueName="[Range].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Hit Rate].[All]" allUniqueName="[Range].[Avg Hit Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range].[Avg Miss Rate].[All]" allUniqueName="[Range].[Avg Miss Rate].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range].[Avg CPI].[All]" allUniqueName="[Range].[Avg CPI].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range].[Cache Size (KB)].[All]" allUniqueName="[Range].[Cache Size (KB)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range].[Block Size].[All]" allUniqueName="[Range].[Block Size].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Hit Rate].[All]" allUniqueName="[Range 1].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 1].[Avg Miss Rate].[All]" allUniqueName="[Range 1].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 1].[Cache Size (KB)].[All]" allUniqueName="[Range 1].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 1].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 1].[Block Size].[All]" allUniqueName="[Range 1].[Block Size].[All]" dimensionUniqueName="[Range 1]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 2].[Cache Size (KB)].[All]" allUniqueName="[Range 2].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 2].[Block Size].[All]" allUniqueName="[Range 2].[Block Size].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Associativity]" caption="Associativity" attribute="1" defaultMemberUniqueName="[Range 2].[Associativity].[All]" allUniqueName="[Range 2].[Associativity].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Replacement]" caption="Replacement" attribute="1" defaultMemberUniqueName="[Range 2].[Replacement].[All]" allUniqueName="[Range 2].[Replacement].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Hit Rate%]" caption="Hit Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Hit Rate%].[All]" allUniqueName="[Range 2].[Hit Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Miss Rate%]" caption="Miss Rate%" attribute="1" defaultMemberUniqueName="[Range 2].[Miss Rate%].[All]" allUniqueName="[Range 2].[Miss Rate%].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[CPI]" caption="CPI" attribute="1" defaultMemberUniqueName="[Range 2].[CPI].[All]" allUniqueName="[Range 2].[CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 2].[Avg CPI].[All]" allUniqueName="[Range 2].[Avg CPI].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Hit Rate].[All]" allUniqueName="[Range 2].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 2].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 2].[Avg Miss Rate].[All]" allUniqueName="[Range 2].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 2]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Unused%].[All]" allUniqueName="[Range 3].[Avg Unused%].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 3].[Avg Wasted Cost].[All]" allUniqueName="[Range 3].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 3].[Cache Size (KB)].[All]" allUniqueName="[Range 3].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 3].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 3].[Block Size].[All]" allUniqueName="[Range 3].[Block Size].[All]" dimensionUniqueName="[Range 3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Hit Rate]" caption="Avg Hit Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Hit Rate].[All]" allUniqueName="[Range 4].[Avg Hit Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Miss Rate]" caption="Avg Miss Rate" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Miss Rate].[All]" allUniqueName="[Range 4].[Avg Miss Rate].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg CPI]" caption="Avg CPI" attribute="1" defaultMemberUniqueName="[Range 4].[Avg CPI].[All]" allUniqueName="[Range 4].[Avg CPI].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Cost per Block Size].[All]" allUniqueName="[Range 4].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Unused%].[All]" allUniqueName="[Range 4].[Avg Unused%].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 4].[Avg Wasted Cost].[All]" allUniqueName="[Range 4].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 4].[Cache Size (KB)].[All]" allUniqueName="[Range 4].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 4].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 4].[Block Size].[All]" allUniqueName="[Range 4].[Block Size].[All]" dimensionUniqueName="[Range 4]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Cost per Block Size]" caption="Avg Cost per Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Cost per Block Size].[All]" allUniqueName="[Range 5].[Avg Cost per Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Unused%]" caption="Avg Unused%" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Unused%].[All]" allUniqueName="[Range 5].[Avg Unused%].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Avg Wasted Cost]" caption="Avg Wasted Cost" attribute="1" defaultMemberUniqueName="[Range 5].[Avg Wasted Cost].[All]" allUniqueName="[Range 5].[Avg Wasted Cost].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range 5].[Cache Size (KB)]" caption="Cache Size (KB)" attribute="1" defaultMemberUniqueName="[Range 5].[Cache Size (KB)].[All]" allUniqueName="[Range 5].[Cache Size (KB)].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Range 5].[Block Size]" caption="Block Size" attribute="1" defaultMemberUniqueName="[Range 5].[Block Size].[All]" allUniqueName="[Range 5].[Block Size].[All]" dimensionUniqueName="[Range 5]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 1]" caption="__XL_Count Range 1" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 2]" caption="__XL_Count Range 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 3]" caption="__XL_Count Range 3" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 4]" caption="__XL_Count Range 4" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Range 5]" caption="__XL_Count Range 5" measure="1" displayFolder="" measureGroup="Range 5" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Block Size]" caption="Sum of Block Size" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate]" caption="Sum of Avg Miss Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="1"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate]" caption="Sum of Avg Hit Rate" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Hit Rate 2]" caption="Sum of Avg Hit Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Miss Rate 2]" caption="Sum of Avg Miss Rate 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI]" caption="Sum of Avg CPI" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB)]" caption="Sum of Cache Size (KB)" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="3"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cache Size (KB) 2]" caption="Sum of Cache Size (KB) 2" measure="1" displayFolder="" measureGroup="Range 1" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 2]" caption="Sum of Avg CPI 2" measure="1" displayFolder="" measureGroup="Range 2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Unused%]" caption="Sum of Avg Unused%" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="19"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost]" caption="Sum of Avg Wasted Cost" measure="1" displayFolder="" measureGroup="Range 3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg CPI 3]" caption="Sum of Avg CPI 3" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size]" caption="Sum of Avg Cost per Block Size" measure="1" displayFolder="" measureGroup="Range 4" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="26"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Cost per Block Size 2]" caption="Sum of Avg Cost per Block Size 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="31"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Avg Wasted Cost 2]" caption="Sum of Avg Wasted Cost 2" measure="1" displayFolder="" measureGroup="Range 5" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="33"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="7">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Range" uniqueName="[Range]" caption="Range"/>
+    <dimension name="Range 1" uniqueName="[Range 1]" caption="Range 1"/>
+    <dimension name="Range 2" uniqueName="[Range 2]" caption="Range 2"/>
+    <dimension name="Range 3" uniqueName="[Range 3]" caption="Range 3"/>
+    <dimension name="Range 4" uniqueName="[Range 4]" caption="Range 4"/>
+    <dimension name="Range 5" uniqueName="[Range 5]" caption="Range 5"/>
+  </dimensions>
+  <measureGroups count="6">
+    <measureGroup name="Range" caption="Range"/>
+    <measureGroup name="Range 1" caption="Range 1"/>
+    <measureGroup name="Range 2" caption="Range 2"/>
+    <measureGroup name="Range 3" caption="Range 3"/>
+    <measureGroup name="Range 4" caption="Range 4"/>
+    <measureGroup name="Range 5" caption="Range 5"/>
+  </measureGroups>
+  <maps count="6">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="4" dimension="5"/>
+    <map measureGroup="5" dimension="6"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1861213479" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{ABF5C744-AB39-4b91-8756-CFA1BBC848D5}">
       <x15:pivotCacheIdVersion cacheIdSupportedVersion="6" cacheIdCreatedVersion="7"/>
@@ -29087,9 +28147,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA81A0B7-CC45-46F7-9B86-0A2637513358}" name="PivotChartTable11" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D7B7BF3-5DF2-49BD-89CD-48FAF4EF6BCB}" name="PivotChartTable4" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="6">
         <item x="0"/>
@@ -29109,12 +28171,10 @@
         <item x="4"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="37">
     <i>
@@ -29241,11 +28301,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Avg Unused%" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Avg Wasted Cost" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg Cost per Block Size" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg Wasted Cost" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="53" series="1">
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29254,7 +28314,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="54" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29263,7 +28323,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="29" series="1">
+    <chartFormat chart="1" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29272,7 +28332,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="30" series="1">
+    <chartFormat chart="1" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29281,7 +28341,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="31" series="1">
+    <chartFormat chart="2" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29290,43 +28350,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="36" series="1">
+    <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -29336,7 +28360,12 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="50">
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -29374,6 +28403,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -29389,8 +28421,8 @@
     <pivotHierarchy dragToData="1"/>
   </pivotHierarchies>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="21"/>
-    <rowHierarchyUsage hierarchyUsage="22"/>
+    <rowHierarchyUsage hierarchyUsage="34"/>
+    <rowHierarchyUsage hierarchyUsage="35"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -29400,7 +28432,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="1111665505">
+      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="1861213479">
         <x15:pivotRow count="2">
           <x15:c t="bl">
             <x15:v/>
@@ -29411,7 +28443,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>0</x15:v>
+            <x15:v>0.246</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>0</x15:v>
@@ -29419,7 +28451,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>0</x15:v>
+            <x15:v>0.192</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>0</x15:v>
@@ -29427,7 +28459,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>0</x15:v>
+            <x15:v>0.16800000000000001</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>0</x15:v>
@@ -29435,7 +28467,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>0</x15:v>
+            <x15:v>0.15</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>0</x15:v>
@@ -29443,7 +28475,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>0</x15:v>
+            <x15:v>0.15</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>0</x15:v>
@@ -29459,7 +28491,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>71.062469482000012</x15:v>
+            <x15:v>53.759999999999991</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>38.182980000000001</x15:v>
@@ -29467,7 +28499,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>67.932434079999993</x15:v>
+            <x15:v>44.8</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>30.42088</x15:v>
@@ -29475,7 +28507,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>63.407592772000001</x15:v>
+            <x15:v>40.32</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>25.55716</x15:v>
@@ -29483,7 +28515,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>56.671142578000001</x15:v>
+            <x15:v>38.08</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>21.573920000000001</x15:v>
@@ -29491,7 +28523,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>46.992187502</x15:v>
+            <x15:v>36.96</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>17.363240000000001</x15:v>
@@ -29507,7 +28539,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>85.227661132000009</x15:v>
+            <x15:v>105.28</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>89.717119999999994</x15:v>
@@ -29515,7 +28547,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>83.558654785999991</x15:v>
+            <x15:v>88.47999999999999</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>73.926059999999993</x15:v>
@@ -29523,7 +28555,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>81.107177735999983</x15:v>
+            <x15:v>80.08</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>64.946100000000001</x15:v>
@@ -29531,7 +28563,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>77.374877929999997</x15:v>
+            <x15:v>75.88</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>58.708720000000007</x15:v>
@@ -29539,7 +28571,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>71.719970705999998</x15:v>
+            <x15:v>73.78</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>52.912239999999997</x15:v>
@@ -29555,7 +28587,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>92.550506589999998</x15:v>
+            <x15:v>206.08</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>190.72244000000001</x15:v>
@@ -29563,7 +28595,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>91.695938110000014</x15:v>
+            <x15:v>174.72000000000003</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>160.20764</x15:v>
@@ -29571,7 +28603,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>90.433502197999999</x15:v>
+            <x15:v>159.04</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>143.82306</x15:v>
@@ -29579,7 +28611,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>88.496093748000007</x15:v>
+            <x15:v>151.19999999999999</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>133.80434</x15:v>
@@ -29587,7 +28619,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>85.522460937999995</x15:v>
+            <x15:v>147.28</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>125.95599999999999</x15:v>
@@ -29603,7 +28635,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>96.269779204000002</x15:v>
+            <x15:v>403.2</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>388.15480000000002</x15:v>
@@ -29611,7 +28643,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>95.840072632000002</x15:v>
+            <x15:v>344.96000000000004</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>330.60692</x15:v>
@@ -29619,7 +28651,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>95.203857421999999</x15:v>
+            <x15:v>315.83999999999997</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>300.68991999999997</x15:v>
@@ -29627,7 +28659,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>94.225921634000002</x15:v>
+            <x15:v>301.28000000000003</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>283.88243999999997</x15:v>
@@ -29635,7 +28667,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>92.717895507999998</x15:v>
+            <x15:v>294</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>272.58947999999998</x15:v>
@@ -29651,7 +28683,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>98.127164841999985</x15:v>
+            <x15:v>788.48</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>773.71083999999996</x15:v>
@@ -29659,7 +28691,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>97.910881045999986</x15:v>
+            <x15:v>680.96</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>666.73252000000002</x15:v>
@@ -29667,7 +28699,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>97.590446471999996</x15:v>
+            <x15:v>627.20000000000005</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>612.08632</x15:v>
@@ -29675,7 +28707,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>97.09724426199999</x15:v>
+            <x15:v>600.32000000000005</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>582.89344000000006</x15:v>
@@ -29683,7 +28715,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>96.334533692000008</x15:v>
+            <x15:v>586.88</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>565.36748</x15:v>
@@ -29691,7 +28723,7 @@
         </x15:pivotRow>
         <x15:pivotRow count="2">
           <x15:c>
-            <x15:v>2115.0704670020004</x15:v>
+            <x15:v>6419.7660000000005</x15:v>
           </x15:c>
           <x15:c>
             <x15:v>6004.5360599999995</x15:v>
@@ -29700,8 +28732,8 @@
       </x15:pivotTableData>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Cost Analysis!$P$1:$S$151">
-        <x15:activeTabTopLevelEntity name="[Range 3]"/>
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Cost Analysis!$O$1:$S$151">
+        <x15:activeTabTopLevelEntity name="[Range 5]"/>
       </x15:pivotTableUISettings>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
@@ -29712,7 +28744,2175 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E43C35-F390-4A1C-B9C2-BEAC3B3DE3D9}" name="PivotChartTable10" cacheId="292" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D7B7BF3-5DF2-49BD-89CD-48FAF4EF6BCB}" name="PivotChartTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Avg Cost per Block Size" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg Wasted Cost" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="34"/>
+    <rowHierarchyUsage hierarchyUsage="35"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="900453948">
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>0.246</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>0.192</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>0.16800000000000001</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>0.15</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>0.15</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>0</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>53.759999999999991</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>38.182980000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>44.8</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>30.42088</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>40.32</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>25.55716</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>38.08</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>21.573920000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>36.96</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17.363240000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>105.28</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>89.717119999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>88.47999999999999</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>73.926059999999993</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>80.08</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>64.946100000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>75.88</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>58.708720000000007</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>73.78</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>52.912239999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>206.08</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>190.72244000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>174.72000000000003</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>160.20764</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>159.04</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>143.82306</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>151.19999999999999</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>133.80434</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>147.28</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>125.95599999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>403.2</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>388.15480000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>344.96000000000004</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>330.60692</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>315.83999999999997</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>300.68991999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>301.28000000000003</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>283.88243999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>294</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>272.58947999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>788.48</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>773.71083999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>680.96</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>666.73252000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>627.20000000000005</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>612.08632</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>600.32000000000005</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>582.89344000000006</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>586.88</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>565.36748</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>6419.7660000000005</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>6004.5360599999995</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Cost Analysis!$O$1:$S$151">
+        <x15:activeTabTopLevelEntity name="[Range 5]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E43C35-F390-4A1C-B9C2-BEAC3B3DE3D9}" name="PivotChartTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Avg Hit Rate" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Avg Miss Rate" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="7"/>
+    <rowHierarchyUsage hierarchyUsage="8"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="1341969354">
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>68.291540000000012</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>31.708460000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>76.713499999999996</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>23.2865</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>82.823039999999992</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>17.176960000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>86.910960000000003</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>13.089040000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>88.879300000000001</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>11.120699999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>91.77028</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8.2297199999999986</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>94.706499999999991</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5.2934999999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96.667900000000003</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3.3321000000000005</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97.88915999999999</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2.1108399999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>98.610980000000012</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1.3890199999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>91.798000000000002</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8.2020000000000017</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>94.731960000000001</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5.2680400000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96.693659999999994</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3.3063400000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97.915499999999994</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2.0845000000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>98.640200000000007</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1.3597999999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>91.81456</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8.1854400000000016</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>94.748700000000014</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5.2512999999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96.709400000000002</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3.2906000000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97.930660000000003</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2.06934</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>98.65715999999999</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1.34284</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>91.816600000000008</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8.1834000000000024</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>94.751499999999993</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5.2484999999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96.713339999999988</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3.2866599999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97.934879999999993</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2.0651199999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>98.662060000000011</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1.3379400000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>91.820779999999999</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>8.1792200000000008</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>94.757019999999997</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>5.2429800000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>96.718199999999996</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>3.2817999999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>97.940219999999997</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>2.0597799999999995</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>98.668220000000005</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>1.3317800000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="2">
+          <x15:c>
+            <x15:v>2802.6857799999998</x15:v>
+          </x15:c>
+          <x15:c>
+            <x15:v>197.31422000000003</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CPI Analysis!$I$1:$L$151">
+        <x15:activeTabTopLevelEntity name="[Range 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE1DEEC8-9E98-4F90-9766-8CB6E93831B7}" name="PivotChartTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Avg CPI" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="112" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="143" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="144" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="37" columnCount="1" cacheId="1975147919">
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>5.96394</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6.5924800000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7.6748999999999992</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9.6017600000000005</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13.61294</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6580199999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5589999999999993</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5808200000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.7195999999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9850400000000006</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6564999999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5561400000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5750799999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.707860000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9591200000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6555799999999987</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5542600000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5715399999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.7011200000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9440600000000003</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6554399999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5539399999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5706799999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6992199999999995</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9397199999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="e">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6551999999999989</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5533400000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5695800000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6968399999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.93424</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>160.65795999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Range 2]"/>
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+        <x15:activeTabTopLevelEntity name="[Range 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE1DEEC8-9E98-4F90-9766-8CB6E93831B7}" name="PivotChartTable9" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item s="1" x="0"/>
+        <item s="1" x="1"/>
+        <item s="1" x="2"/>
+        <item s="1" x="3"/>
+        <item s="1" x="4"/>
+        <item s="1" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Avg CPI" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="112" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="143" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="144" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="145" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="146" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
+      <x15:pivotTableData rowCount="37" columnCount="1" cacheId="681243387">
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>5.96394</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>6.5924800000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>7.6748999999999992</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>9.6017600000000005</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>13.61294</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6580199999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5589999999999993</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5808200000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.7195999999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9850400000000006</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6564999999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5561400000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5750799999999998</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.707860000000001</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9591200000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6555799999999987</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5542600000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5715399999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.7011200000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9440600000000003</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6554399999999996</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5539399999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5706799999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6992199999999995</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.9397199999999994</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c t="bl">
+            <x15:v/>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6551999999999989</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5533400000000004</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.5695800000000002</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.6968399999999999</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>4.93424</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+        <x15:pivotRow count="1">
+          <x15:c>
+            <x15:v>160.65795999999997</x15:v>
+          </x15:c>
+        </x15:pivotRow>
+      </x15:pivotTableData>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Range 2]"/>
+        <x15:activeTabTopLevelEntity name="[Range]"/>
+        <x15:activeTabTopLevelEntity name="[Range 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E43C35-F390-4A1C-B9C2-BEAC3B3DE3D9}" name="PivotChartTable10" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -30021,7 +31221,12 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="50">
+  <pivotHierarchies count="58">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -30059,6 +31264,9 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -30331,2142 +31539,6 @@
             <x15:v/>
           </x15:c>
           <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.820779999999999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8.1792200000000008</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.757019999999997</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5.2429800000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.718199999999996</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3.2817999999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.940219999999997</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2.0597799999999995</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.668220000000005</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1.3317800000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2802.6857799999998</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>197.31422000000003</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_CPI Analysis!$I$1:$L$151">
-        <x15:activeTabTopLevelEntity name="[Range 1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE1DEEC8-9E98-4F90-9766-8CB6E93831B7}" name="PivotChartTable9" cacheId="290" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Avg CPI" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="112" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="143" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="144" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="145" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="146" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="50">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="9"/>
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="37" columnCount="1" cacheId="681243387">
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>5.96394</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6.5924800000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7.6748999999999992</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9.6017600000000005</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13.61294</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6580199999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5589999999999993</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5808200000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.7195999999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9850400000000006</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6564999999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5561400000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5750799999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.707860000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9591200000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6555799999999987</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5542600000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5715399999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.7011200000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9440600000000003</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6554399999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5539399999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5706799999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6992199999999995</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9397199999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6551999999999989</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5533400000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5695800000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6968399999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.93424</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>160.65795999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Range 2]"/>
-        <x15:activeTabTopLevelEntity name="[Range]"/>
-        <x15:activeTabTopLevelEntity name="[Range 1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA81A0B7-CC45-46F7-9B86-0A2637513358}" name="PivotChartTable7" cacheId="279" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Avg Unused%" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Avg Wasted Cost" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="53" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="54" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="50">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="21"/>
-    <rowHierarchyUsage hierarchyUsage="22"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="628938200">
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>0</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>71.062469482000012</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>38.182980000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>67.932434079999993</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>30.42088</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>63.407592772000001</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>25.55716</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>56.671142578000001</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>21.573920000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>46.992187502</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17.363240000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>85.227661132000009</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>89.717119999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>83.558654785999991</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>73.926059999999993</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>81.107177735999983</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>64.946100000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>77.374877929999997</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>58.708720000000007</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>71.719970705999998</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>52.912239999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>92.550506589999998</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>190.72244000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.695938110000014</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>160.20764</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>90.433502197999999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>143.82306</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>88.496093748000007</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>133.80434</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>85.522460937999995</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>125.95599999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.269779204000002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>388.15480000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>95.840072632000002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>330.60692</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>95.203857421999999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>300.68991999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.225921634000002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>283.88243999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>92.717895507999998</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>272.58947999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="bl">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.127164841999985</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>773.71083999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.910881045999986</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>666.73252000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.590446471999996</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>612.08632</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.09724426199999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>582.89344000000006</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.334533692000008</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>565.36748</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>2115.0704670020004</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>6004.5360599999995</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Cost Analysis!$P$1:$S$151">
-        <x15:activeTabTopLevelEntity name="[Range 3]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE1DEEC8-9E98-4F90-9766-8CB6E93831B7}" name="PivotChartTable5" cacheId="280" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Avg CPI" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="112" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="143" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="144" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="50">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="9"/>
-    <rowHierarchyUsage hierarchyUsage="10"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="37" columnCount="1" cacheId="1975147919">
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>5.96394</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>6.5924800000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>7.6748999999999992</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>9.6017600000000005</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>13.61294</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6580199999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5589999999999993</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5808200000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.7195999999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9850400000000006</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6564999999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5561400000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5750799999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.707860000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9591200000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6555799999999987</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5542600000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5715399999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.7011200000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9440600000000003</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6554399999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5539399999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5706799999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6992199999999995</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.9397199999999994</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6551999999999989</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5533400000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.5695800000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.6968399999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>4.93424</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="1">
-          <x15:c>
-            <x15:v>160.65795999999997</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-      </x15:pivotTableData>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings>
-        <x15:activeTabTopLevelEntity name="[Range 2]"/>
-        <x15:activeTabTopLevelEntity name="[Range]"/>
-        <x15:activeTabTopLevelEntity name="[Range 1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4E43C35-F390-4A1C-B9C2-BEAC3B3DE3D9}" name="PivotChartTable3" cacheId="281" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A1:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="6">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item s="1" x="3"/>
-        <item s="1" x="4"/>
-        <item s="1" x="5"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Avg Hit Rate" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Avg Miss Rate" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="50">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="7"/>
-    <rowHierarchyUsage hierarchyUsage="8"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{44433962-1CF7-4059-B4EE-95C3D5FFCF73}">
-      <x15:pivotTableData rowCount="37" columnCount="2" cacheId="1341969354">
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>68.291540000000012</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>31.708460000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>76.713499999999996</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>23.2865</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>82.823039999999992</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>17.176960000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>86.910960000000003</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>13.089040000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>88.879300000000001</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>11.120699999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.77028</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8.2297199999999986</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.706499999999991</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5.2934999999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.667900000000003</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3.3321000000000005</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.88915999999999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2.1108399999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.610980000000012</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1.3890199999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.798000000000002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8.2020000000000017</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.731960000000001</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5.2680400000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.693659999999994</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3.3063400000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.915499999999994</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2.0845000000000002</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.640200000000007</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1.3597999999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.81456</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8.1854400000000016</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.748700000000014</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5.2512999999999996</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.709400000000002</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3.2906000000000004</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.930660000000003</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2.06934</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.65715999999999</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1.34284</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>91.816600000000008</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>8.1834000000000024</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>94.751499999999993</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>5.2484999999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>96.713339999999988</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>3.2866599999999999</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>97.934879999999993</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>2.0651199999999998</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c>
-            <x15:v>98.662060000000011</x15:v>
-          </x15:c>
-          <x15:c>
-            <x15:v>1.3379400000000001</x15:v>
-          </x15:c>
-        </x15:pivotRow>
-        <x15:pivotRow count="2">
-          <x15:c t="e">
-            <x15:v/>
-          </x15:c>
-          <x15:c t="e">
             <x15:v/>
           </x15:c>
         </x15:pivotRow>
@@ -32831,8 +31903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -39082,7 +38154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
@@ -42603,7 +41675,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
